--- a/DataExtraction/Input/MGT7/MGT7_mapping_config.xlsx
+++ b/DataExtraction/Input/MGT7/MGT7_mapping_config.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="230">
   <si>
     <t>Field_Name</t>
   </si>
@@ -692,6 +692,15 @@
   </si>
   <si>
     <t>T_ZNCA_MGT_7_S10_3/DATA</t>
+  </si>
+  <si>
+    <t>registered_full_address</t>
+  </si>
+  <si>
+    <t>REG_OFFC_ADDRESS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update if not exist </t>
   </si>
 </sst>
 </file>
@@ -1026,7 +1035,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -1257,6 +1266,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
@@ -6726,14 +6741,30 @@
       <c r="J166" s="7"/>
     </row>
     <row r="167" ht="13.65" customHeight="1">
-      <c r="A167" s="7"/>
-      <c r="B167" s="7"/>
-      <c r="C167" s="7"/>
-      <c r="D167" s="7"/>
-      <c r="E167" s="75"/>
-      <c r="F167" s="75"/>
-      <c r="G167" s="76"/>
-      <c r="H167" s="7"/>
+      <c r="A167" t="s" s="77">
+        <v>227</v>
+      </c>
+      <c r="B167" t="s" s="77">
+        <v>9</v>
+      </c>
+      <c r="C167" t="s" s="77">
+        <v>10</v>
+      </c>
+      <c r="D167" t="s" s="77">
+        <v>11</v>
+      </c>
+      <c r="E167" t="s" s="78">
+        <v>228</v>
+      </c>
+      <c r="F167" t="s" s="78">
+        <v>203</v>
+      </c>
+      <c r="G167" t="s" s="77">
+        <v>227</v>
+      </c>
+      <c r="H167" t="s" s="77">
+        <v>229</v>
+      </c>
       <c r="I167" s="7"/>
       <c r="J167" s="7"/>
     </row>
@@ -6792,7 +6823,7 @@
       <c r="D172" s="7"/>
       <c r="E172" s="75"/>
       <c r="F172" s="75"/>
-      <c r="G172" s="77"/>
+      <c r="G172" s="79"/>
       <c r="H172" s="7"/>
       <c r="I172" s="7"/>
       <c r="J172" s="7"/>
@@ -6802,9 +6833,9 @@
       <c r="B173" s="7"/>
       <c r="C173" s="7"/>
       <c r="D173" s="7"/>
-      <c r="E173" s="78"/>
+      <c r="E173" s="80"/>
       <c r="F173" s="7"/>
-      <c r="G173" s="79"/>
+      <c r="G173" s="81"/>
       <c r="H173" s="7"/>
       <c r="I173" s="7"/>
       <c r="J173" s="7"/>

--- a/DataExtraction/Input/MGT7/MGT7_mapping_config.xlsx
+++ b/DataExtraction/Input/MGT7/MGT7_mapping_config.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="229">
   <si>
     <t>Field_Name</t>
   </si>
@@ -37,7 +37,7 @@
     <t>Column_JSON_Node</t>
   </si>
   <si>
-    <t>Year</t>
+    <t>year</t>
   </si>
   <si>
     <t>No</t>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t>principal_business_activities</t>
-  </si>
-  <si>
-    <t>year</t>
   </si>
   <si>
     <t>Yes</t>
@@ -2402,7 +2399,7 @@
         <v>13</v>
       </c>
       <c r="G2" t="s" s="11">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H2" s="12"/>
       <c r="I2" s="6"/>
@@ -2413,22 +2410,22 @@
         <v>13</v>
       </c>
       <c r="B3" t="s" s="9">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s" s="9">
         <v>15</v>
       </c>
-      <c r="C3" t="s" s="9">
+      <c r="D3" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="D3" t="s" s="9">
+      <c r="E3" t="s" s="10">
         <v>17</v>
-      </c>
-      <c r="E3" t="s" s="10">
-        <v>18</v>
       </c>
       <c r="F3" t="s" s="2">
         <v>13</v>
       </c>
       <c r="G3" t="s" s="13">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="6"/>
@@ -2436,7 +2433,7 @@
     </row>
     <row r="4" ht="13.55" customHeight="1">
       <c r="A4" t="s" s="14">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
@@ -2450,7 +2447,7 @@
     </row>
     <row r="5" ht="13.55" customHeight="1">
       <c r="A5" t="s" s="18">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -2464,7 +2461,7 @@
     </row>
     <row r="6" ht="14" customHeight="1">
       <c r="A6" t="s" s="8">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s" s="9">
         <v>9</v>
@@ -2479,20 +2476,20 @@
         <v>12</v>
       </c>
       <c r="F6" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s" s="26">
         <v>22</v>
       </c>
-      <c r="G6" t="s" s="26">
-        <v>23</v>
-      </c>
       <c r="H6" t="s" s="9">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
     </row>
     <row r="7" ht="14" customHeight="1">
       <c r="A7" t="s" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s" s="9">
         <v>9</v>
@@ -2507,860 +2504,860 @@
         <v>12</v>
       </c>
       <c r="F7" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s" s="26">
         <v>22</v>
       </c>
-      <c r="G7" t="s" s="26">
+      <c r="H7" t="s" s="9">
         <v>23</v>
-      </c>
-      <c r="H7" t="s" s="9">
-        <v>24</v>
       </c>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
     </row>
     <row r="8" ht="14" customHeight="1">
       <c r="A8" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s" s="24">
         <v>25</v>
       </c>
-      <c r="B8" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s" s="9">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s" s="24">
+      <c r="E8" t="s" s="25">
         <v>26</v>
       </c>
-      <c r="E8" t="s" s="25">
-        <v>27</v>
-      </c>
       <c r="F8" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="G8" t="s" s="26">
         <v>22</v>
       </c>
-      <c r="G8" t="s" s="26">
-        <v>23</v>
-      </c>
       <c r="H8" t="s" s="9">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I8" s="27"/>
       <c r="J8" s="28"/>
     </row>
     <row r="9" ht="28.8" customHeight="1">
       <c r="A9" t="s" s="8">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s" s="24">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s" s="10">
         <v>28</v>
       </c>
-      <c r="B9" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s" s="9">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s" s="24">
-        <v>26</v>
-      </c>
-      <c r="E9" t="s" s="10">
-        <v>29</v>
-      </c>
       <c r="F9" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s" s="26">
         <v>22</v>
       </c>
-      <c r="G9" t="s" s="26">
-        <v>23</v>
-      </c>
       <c r="H9" t="s" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="7"/>
     </row>
     <row r="10" ht="14" customHeight="1">
       <c r="A10" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s" s="24">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s" s="10">
         <v>30</v>
       </c>
-      <c r="B10" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s" s="9">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s" s="24">
-        <v>26</v>
-      </c>
-      <c r="E10" t="s" s="10">
-        <v>31</v>
-      </c>
       <c r="F10" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="G10" t="s" s="26">
         <v>22</v>
       </c>
-      <c r="G10" t="s" s="26">
-        <v>23</v>
-      </c>
       <c r="H10" t="s" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="7"/>
     </row>
     <row r="11" ht="28.8" customHeight="1">
       <c r="A11" t="s" s="8">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s" s="24">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s" s="10">
         <v>32</v>
       </c>
-      <c r="B11" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s" s="9">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s" s="24">
-        <v>11</v>
-      </c>
-      <c r="E11" t="s" s="10">
-        <v>33</v>
-      </c>
       <c r="F11" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s" s="26">
         <v>22</v>
       </c>
-      <c r="G11" t="s" s="26">
-        <v>23</v>
-      </c>
       <c r="H11" t="s" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="7"/>
     </row>
     <row r="12" ht="28.8" customHeight="1">
       <c r="A12" t="s" s="8">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s" s="24">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s" s="10">
         <v>34</v>
       </c>
-      <c r="B12" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s" s="9">
-        <v>10</v>
-      </c>
-      <c r="D12" t="s" s="24">
-        <v>11</v>
-      </c>
-      <c r="E12" t="s" s="10">
-        <v>35</v>
-      </c>
       <c r="F12" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="G12" t="s" s="26">
         <v>22</v>
       </c>
-      <c r="G12" t="s" s="26">
-        <v>23</v>
-      </c>
       <c r="H12" t="s" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="7"/>
     </row>
     <row r="13" ht="28.8" customHeight="1">
       <c r="A13" t="s" s="8">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s" s="24">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s" s="10">
         <v>36</v>
       </c>
-      <c r="B13" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s" s="9">
-        <v>10</v>
-      </c>
-      <c r="D13" t="s" s="24">
-        <v>11</v>
-      </c>
-      <c r="E13" t="s" s="10">
-        <v>37</v>
-      </c>
       <c r="F13" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="G13" t="s" s="26">
         <v>22</v>
       </c>
-      <c r="G13" t="s" s="26">
-        <v>23</v>
-      </c>
       <c r="H13" t="s" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="7"/>
     </row>
     <row r="14" ht="28.8" customHeight="1">
       <c r="A14" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s" s="24">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s" s="10">
         <v>38</v>
       </c>
-      <c r="B14" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s" s="9">
-        <v>10</v>
-      </c>
-      <c r="D14" t="s" s="24">
-        <v>11</v>
-      </c>
-      <c r="E14" t="s" s="10">
-        <v>39</v>
-      </c>
       <c r="F14" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="G14" t="s" s="26">
         <v>22</v>
       </c>
-      <c r="G14" t="s" s="26">
-        <v>23</v>
-      </c>
       <c r="H14" t="s" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="7"/>
     </row>
     <row r="15" ht="28.8" customHeight="1">
       <c r="A15" t="s" s="8">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s" s="24">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s" s="10">
         <v>40</v>
       </c>
-      <c r="B15" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C15" t="s" s="9">
-        <v>10</v>
-      </c>
-      <c r="D15" t="s" s="24">
-        <v>11</v>
-      </c>
-      <c r="E15" t="s" s="10">
-        <v>41</v>
-      </c>
       <c r="F15" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="G15" t="s" s="26">
         <v>22</v>
       </c>
-      <c r="G15" t="s" s="26">
-        <v>23</v>
-      </c>
       <c r="H15" t="s" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="7"/>
     </row>
     <row r="16" ht="28.8" customHeight="1">
       <c r="A16" t="s" s="8">
+        <v>41</v>
+      </c>
+      <c r="B16" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s" s="24">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s" s="10">
         <v>42</v>
       </c>
-      <c r="B16" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C16" t="s" s="9">
-        <v>10</v>
-      </c>
-      <c r="D16" t="s" s="24">
-        <v>11</v>
-      </c>
-      <c r="E16" t="s" s="10">
-        <v>43</v>
-      </c>
       <c r="F16" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="G16" t="s" s="26">
         <v>22</v>
       </c>
-      <c r="G16" t="s" s="26">
-        <v>23</v>
-      </c>
       <c r="H16" t="s" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I16" s="6"/>
       <c r="J16" s="7"/>
     </row>
     <row r="17" ht="28.8" customHeight="1">
       <c r="A17" t="s" s="8">
+        <v>43</v>
+      </c>
+      <c r="B17" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s" s="24">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s" s="10">
         <v>44</v>
       </c>
-      <c r="B17" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C17" t="s" s="9">
-        <v>10</v>
-      </c>
-      <c r="D17" t="s" s="24">
-        <v>11</v>
-      </c>
-      <c r="E17" t="s" s="10">
-        <v>45</v>
-      </c>
       <c r="F17" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="G17" t="s" s="26">
         <v>22</v>
       </c>
-      <c r="G17" t="s" s="26">
-        <v>23</v>
-      </c>
       <c r="H17" t="s" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I17" s="6"/>
       <c r="J17" s="7"/>
     </row>
     <row r="18" ht="28.8" customHeight="1">
       <c r="A18" t="s" s="8">
+        <v>45</v>
+      </c>
+      <c r="B18" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s" s="24">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s" s="10">
         <v>46</v>
       </c>
-      <c r="B18" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C18" t="s" s="9">
-        <v>10</v>
-      </c>
-      <c r="D18" t="s" s="24">
-        <v>11</v>
-      </c>
-      <c r="E18" t="s" s="10">
-        <v>47</v>
-      </c>
       <c r="F18" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="G18" t="s" s="26">
         <v>22</v>
       </c>
-      <c r="G18" t="s" s="26">
-        <v>23</v>
-      </c>
       <c r="H18" t="s" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I18" s="6"/>
       <c r="J18" s="7"/>
     </row>
     <row r="19" ht="28.8" customHeight="1">
       <c r="A19" t="s" s="8">
+        <v>47</v>
+      </c>
+      <c r="B19" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s" s="24">
+        <v>11</v>
+      </c>
+      <c r="E19" t="s" s="10">
         <v>48</v>
       </c>
-      <c r="B19" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C19" t="s" s="9">
-        <v>10</v>
-      </c>
-      <c r="D19" t="s" s="24">
-        <v>11</v>
-      </c>
-      <c r="E19" t="s" s="10">
-        <v>49</v>
-      </c>
       <c r="F19" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="G19" t="s" s="26">
         <v>22</v>
       </c>
-      <c r="G19" t="s" s="26">
-        <v>23</v>
-      </c>
       <c r="H19" t="s" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I19" s="6"/>
       <c r="J19" s="7"/>
     </row>
     <row r="20" ht="28.8" customHeight="1">
       <c r="A20" t="s" s="8">
+        <v>49</v>
+      </c>
+      <c r="B20" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s" s="24">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s" s="25">
         <v>50</v>
       </c>
-      <c r="B20" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C20" t="s" s="9">
-        <v>10</v>
-      </c>
-      <c r="D20" t="s" s="24">
-        <v>11</v>
-      </c>
-      <c r="E20" t="s" s="25">
-        <v>51</v>
-      </c>
       <c r="F20" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="G20" t="s" s="26">
         <v>22</v>
       </c>
-      <c r="G20" t="s" s="26">
-        <v>23</v>
-      </c>
       <c r="H20" t="s" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="7"/>
     </row>
     <row r="21" ht="28.8" customHeight="1">
       <c r="A21" t="s" s="8">
+        <v>51</v>
+      </c>
+      <c r="B21" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s" s="24">
+        <v>11</v>
+      </c>
+      <c r="E21" t="s" s="10">
         <v>52</v>
       </c>
-      <c r="B21" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C21" t="s" s="9">
-        <v>10</v>
-      </c>
-      <c r="D21" t="s" s="24">
-        <v>11</v>
-      </c>
-      <c r="E21" t="s" s="10">
-        <v>53</v>
-      </c>
       <c r="F21" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="G21" t="s" s="26">
         <v>22</v>
       </c>
-      <c r="G21" t="s" s="26">
-        <v>23</v>
-      </c>
       <c r="H21" t="s" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="7"/>
     </row>
     <row r="22" ht="14" customHeight="1">
       <c r="A22" t="s" s="8">
+        <v>53</v>
+      </c>
+      <c r="B22" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s" s="24">
+        <v>11</v>
+      </c>
+      <c r="E22" t="s" s="10">
         <v>54</v>
       </c>
-      <c r="B22" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C22" t="s" s="9">
-        <v>10</v>
-      </c>
-      <c r="D22" t="s" s="24">
-        <v>11</v>
-      </c>
-      <c r="E22" t="s" s="10">
-        <v>55</v>
-      </c>
       <c r="F22" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="G22" t="s" s="26">
         <v>22</v>
       </c>
-      <c r="G22" t="s" s="26">
-        <v>23</v>
-      </c>
       <c r="H22" t="s" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="7"/>
     </row>
     <row r="23" ht="28.8" customHeight="1">
       <c r="A23" t="s" s="8">
+        <v>55</v>
+      </c>
+      <c r="B23" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s" s="24">
+        <v>11</v>
+      </c>
+      <c r="E23" t="s" s="10">
         <v>56</v>
       </c>
-      <c r="B23" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C23" t="s" s="9">
-        <v>10</v>
-      </c>
-      <c r="D23" t="s" s="24">
-        <v>11</v>
-      </c>
-      <c r="E23" t="s" s="10">
-        <v>57</v>
-      </c>
       <c r="F23" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="G23" t="s" s="26">
         <v>22</v>
       </c>
-      <c r="G23" t="s" s="26">
-        <v>23</v>
-      </c>
       <c r="H23" t="s" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="7"/>
     </row>
     <row r="24" ht="28.8" customHeight="1">
       <c r="A24" t="s" s="8">
+        <v>57</v>
+      </c>
+      <c r="B24" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s" s="24">
+        <v>11</v>
+      </c>
+      <c r="E24" t="s" s="10">
         <v>58</v>
       </c>
-      <c r="B24" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C24" t="s" s="9">
-        <v>10</v>
-      </c>
-      <c r="D24" t="s" s="24">
-        <v>11</v>
-      </c>
-      <c r="E24" t="s" s="10">
-        <v>59</v>
-      </c>
       <c r="F24" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="G24" t="s" s="26">
         <v>22</v>
       </c>
-      <c r="G24" t="s" s="26">
-        <v>23</v>
-      </c>
       <c r="H24" t="s" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="7"/>
     </row>
     <row r="25" ht="28.8" customHeight="1">
       <c r="A25" t="s" s="8">
+        <v>59</v>
+      </c>
+      <c r="B25" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s" s="24">
+        <v>11</v>
+      </c>
+      <c r="E25" t="s" s="10">
         <v>60</v>
       </c>
-      <c r="B25" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C25" t="s" s="9">
-        <v>10</v>
-      </c>
-      <c r="D25" t="s" s="24">
-        <v>11</v>
-      </c>
-      <c r="E25" t="s" s="10">
-        <v>61</v>
-      </c>
       <c r="F25" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="G25" t="s" s="26">
         <v>22</v>
       </c>
-      <c r="G25" t="s" s="26">
-        <v>23</v>
-      </c>
       <c r="H25" t="s" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I25" s="6"/>
       <c r="J25" s="7"/>
     </row>
     <row r="26" ht="28.8" customHeight="1">
       <c r="A26" t="s" s="8">
+        <v>61</v>
+      </c>
+      <c r="B26" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s" s="24">
+        <v>11</v>
+      </c>
+      <c r="E26" t="s" s="25">
         <v>62</v>
       </c>
-      <c r="B26" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C26" t="s" s="9">
-        <v>10</v>
-      </c>
-      <c r="D26" t="s" s="24">
-        <v>11</v>
-      </c>
-      <c r="E26" t="s" s="25">
-        <v>63</v>
-      </c>
       <c r="F26" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="G26" t="s" s="26">
         <v>22</v>
       </c>
-      <c r="G26" t="s" s="26">
-        <v>23</v>
-      </c>
       <c r="H26" t="s" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I26" s="6"/>
       <c r="J26" s="7"/>
     </row>
     <row r="27" ht="28.8" customHeight="1">
       <c r="A27" t="s" s="8">
+        <v>63</v>
+      </c>
+      <c r="B27" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="D27" t="s" s="24">
+        <v>11</v>
+      </c>
+      <c r="E27" t="s" s="10">
         <v>64</v>
       </c>
-      <c r="B27" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C27" t="s" s="9">
-        <v>10</v>
-      </c>
-      <c r="D27" t="s" s="24">
-        <v>11</v>
-      </c>
-      <c r="E27" t="s" s="10">
-        <v>65</v>
-      </c>
       <c r="F27" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="G27" t="s" s="26">
         <v>22</v>
       </c>
-      <c r="G27" t="s" s="26">
-        <v>23</v>
-      </c>
       <c r="H27" t="s" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I27" s="6"/>
       <c r="J27" s="7"/>
     </row>
     <row r="28" ht="28.8" customHeight="1">
       <c r="A28" t="s" s="8">
+        <v>65</v>
+      </c>
+      <c r="B28" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="D28" t="s" s="24">
+        <v>11</v>
+      </c>
+      <c r="E28" t="s" s="10">
         <v>66</v>
       </c>
-      <c r="B28" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C28" t="s" s="9">
-        <v>10</v>
-      </c>
-      <c r="D28" t="s" s="24">
-        <v>11</v>
-      </c>
-      <c r="E28" t="s" s="10">
-        <v>67</v>
-      </c>
       <c r="F28" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="G28" t="s" s="26">
         <v>22</v>
       </c>
-      <c r="G28" t="s" s="26">
-        <v>23</v>
-      </c>
       <c r="H28" t="s" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I28" s="6"/>
       <c r="J28" s="7"/>
     </row>
     <row r="29" ht="28.8" customHeight="1">
       <c r="A29" t="s" s="8">
+        <v>67</v>
+      </c>
+      <c r="B29" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="D29" t="s" s="24">
+        <v>11</v>
+      </c>
+      <c r="E29" t="s" s="10">
         <v>68</v>
       </c>
-      <c r="B29" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C29" t="s" s="9">
-        <v>10</v>
-      </c>
-      <c r="D29" t="s" s="24">
-        <v>11</v>
-      </c>
-      <c r="E29" t="s" s="10">
-        <v>69</v>
-      </c>
       <c r="F29" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="G29" t="s" s="26">
         <v>22</v>
       </c>
-      <c r="G29" t="s" s="26">
-        <v>23</v>
-      </c>
       <c r="H29" t="s" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I29" s="6"/>
       <c r="J29" s="7"/>
     </row>
     <row r="30" ht="28.8" customHeight="1">
       <c r="A30" t="s" s="8">
+        <v>69</v>
+      </c>
+      <c r="B30" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="D30" t="s" s="24">
+        <v>11</v>
+      </c>
+      <c r="E30" t="s" s="10">
         <v>70</v>
       </c>
-      <c r="B30" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C30" t="s" s="9">
-        <v>10</v>
-      </c>
-      <c r="D30" t="s" s="24">
-        <v>11</v>
-      </c>
-      <c r="E30" t="s" s="10">
-        <v>71</v>
-      </c>
       <c r="F30" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="G30" t="s" s="26">
         <v>22</v>
       </c>
-      <c r="G30" t="s" s="26">
-        <v>23</v>
-      </c>
       <c r="H30" t="s" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I30" s="6"/>
       <c r="J30" s="7"/>
     </row>
     <row r="31" ht="28.8" customHeight="1">
       <c r="A31" t="s" s="8">
+        <v>71</v>
+      </c>
+      <c r="B31" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="D31" t="s" s="24">
+        <v>11</v>
+      </c>
+      <c r="E31" t="s" s="10">
         <v>72</v>
       </c>
-      <c r="B31" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C31" t="s" s="9">
-        <v>10</v>
-      </c>
-      <c r="D31" t="s" s="24">
-        <v>11</v>
-      </c>
-      <c r="E31" t="s" s="10">
-        <v>73</v>
-      </c>
       <c r="F31" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="G31" t="s" s="26">
         <v>22</v>
       </c>
-      <c r="G31" t="s" s="26">
-        <v>23</v>
-      </c>
       <c r="H31" t="s" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I31" s="6"/>
       <c r="J31" s="7"/>
     </row>
     <row r="32" ht="28.8" customHeight="1">
       <c r="A32" t="s" s="8">
+        <v>73</v>
+      </c>
+      <c r="B32" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="D32" t="s" s="24">
+        <v>11</v>
+      </c>
+      <c r="E32" t="s" s="25">
         <v>74</v>
       </c>
-      <c r="B32" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C32" t="s" s="9">
-        <v>10</v>
-      </c>
-      <c r="D32" t="s" s="24">
-        <v>11</v>
-      </c>
-      <c r="E32" t="s" s="25">
-        <v>75</v>
-      </c>
       <c r="F32" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="G32" t="s" s="26">
         <v>22</v>
       </c>
-      <c r="G32" t="s" s="26">
-        <v>23</v>
-      </c>
       <c r="H32" t="s" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I32" s="6"/>
       <c r="J32" s="7"/>
     </row>
     <row r="33" ht="28.8" customHeight="1">
       <c r="A33" t="s" s="8">
+        <v>75</v>
+      </c>
+      <c r="B33" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C33" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="D33" t="s" s="24">
+        <v>11</v>
+      </c>
+      <c r="E33" t="s" s="10">
         <v>76</v>
       </c>
-      <c r="B33" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C33" t="s" s="9">
-        <v>10</v>
-      </c>
-      <c r="D33" t="s" s="24">
-        <v>11</v>
-      </c>
-      <c r="E33" t="s" s="10">
-        <v>77</v>
-      </c>
       <c r="F33" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="G33" t="s" s="26">
         <v>22</v>
       </c>
-      <c r="G33" t="s" s="26">
-        <v>23</v>
-      </c>
       <c r="H33" t="s" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I33" s="6"/>
       <c r="J33" s="7"/>
     </row>
     <row r="34" ht="14" customHeight="1">
       <c r="A34" t="s" s="8">
+        <v>77</v>
+      </c>
+      <c r="B34" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="D34" t="s" s="24">
+        <v>11</v>
+      </c>
+      <c r="E34" t="s" s="10">
         <v>78</v>
       </c>
-      <c r="B34" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C34" t="s" s="9">
-        <v>10</v>
-      </c>
-      <c r="D34" t="s" s="24">
-        <v>11</v>
-      </c>
-      <c r="E34" t="s" s="10">
-        <v>79</v>
-      </c>
       <c r="F34" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="G34" t="s" s="26">
         <v>22</v>
       </c>
-      <c r="G34" t="s" s="26">
-        <v>23</v>
-      </c>
       <c r="H34" t="s" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I34" s="6"/>
       <c r="J34" s="7"/>
     </row>
     <row r="35" ht="28.8" customHeight="1">
       <c r="A35" t="s" s="8">
+        <v>79</v>
+      </c>
+      <c r="B35" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C35" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="D35" t="s" s="24">
+        <v>11</v>
+      </c>
+      <c r="E35" t="s" s="10">
         <v>80</v>
       </c>
-      <c r="B35" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C35" t="s" s="9">
-        <v>10</v>
-      </c>
-      <c r="D35" t="s" s="24">
-        <v>11</v>
-      </c>
-      <c r="E35" t="s" s="10">
-        <v>81</v>
-      </c>
       <c r="F35" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="G35" t="s" s="26">
         <v>22</v>
       </c>
-      <c r="G35" t="s" s="26">
-        <v>23</v>
-      </c>
       <c r="H35" t="s" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I35" s="6"/>
       <c r="J35" s="7"/>
     </row>
     <row r="36" ht="14" customHeight="1">
       <c r="A36" t="s" s="8">
+        <v>81</v>
+      </c>
+      <c r="B36" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C36" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="D36" t="s" s="24">
+        <v>11</v>
+      </c>
+      <c r="E36" t="s" s="10">
         <v>82</v>
       </c>
-      <c r="B36" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C36" t="s" s="9">
-        <v>10</v>
-      </c>
-      <c r="D36" t="s" s="24">
-        <v>11</v>
-      </c>
-      <c r="E36" t="s" s="10">
-        <v>83</v>
-      </c>
       <c r="F36" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="G36" t="s" s="26">
         <v>22</v>
       </c>
-      <c r="G36" t="s" s="26">
-        <v>23</v>
-      </c>
       <c r="H36" t="s" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I36" s="6"/>
       <c r="J36" s="7"/>
     </row>
     <row r="37" ht="14" customHeight="1">
       <c r="A37" t="s" s="8">
+        <v>83</v>
+      </c>
+      <c r="B37" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C37" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="D37" t="s" s="24">
+        <v>11</v>
+      </c>
+      <c r="E37" t="s" s="10">
         <v>84</v>
       </c>
-      <c r="B37" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C37" t="s" s="9">
-        <v>10</v>
-      </c>
-      <c r="D37" t="s" s="24">
-        <v>11</v>
-      </c>
-      <c r="E37" t="s" s="10">
-        <v>85</v>
-      </c>
       <c r="F37" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="G37" t="s" s="26">
         <v>22</v>
       </c>
-      <c r="G37" t="s" s="26">
-        <v>23</v>
-      </c>
       <c r="H37" t="s" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I37" s="6"/>
       <c r="J37" s="7"/>
     </row>
     <row r="38" ht="13.55" customHeight="1">
       <c r="A38" t="s" s="14">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B38" s="15"/>
       <c r="C38" s="15"/>
@@ -3374,7 +3371,7 @@
     </row>
     <row r="39" ht="13.55" customHeight="1">
       <c r="A39" t="s" s="18">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B39" s="19"/>
       <c r="C39" s="19"/>
@@ -3388,7 +3385,7 @@
     </row>
     <row r="40" ht="13.75" customHeight="1">
       <c r="A40" t="s" s="13">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B40" t="s" s="9">
         <v>9</v>
@@ -3403,20 +3400,20 @@
         <v>12</v>
       </c>
       <c r="F40" t="s" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G40" t="s" s="26">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H40" t="s" s="13">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I40" s="6"/>
       <c r="J40" s="7"/>
     </row>
     <row r="41" ht="13.75" customHeight="1">
       <c r="A41" t="s" s="33">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B41" t="s" s="9">
         <v>9</v>
@@ -3431,48 +3428,48 @@
         <v>12</v>
       </c>
       <c r="F41" t="s" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G41" t="s" s="26">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H41" t="s" s="13">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I41" s="6"/>
       <c r="J41" s="7"/>
     </row>
     <row r="42" ht="13.75" customHeight="1">
       <c r="A42" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="B42" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C42" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="D42" t="s" s="34">
         <v>25</v>
       </c>
-      <c r="B42" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C42" t="s" s="9">
-        <v>10</v>
-      </c>
-      <c r="D42" t="s" s="34">
-        <v>26</v>
-      </c>
       <c r="E42" t="s" s="10">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F42" t="s" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G42" t="s" s="26">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H42" t="s" s="9">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I42" s="6"/>
       <c r="J42" s="7"/>
     </row>
     <row r="43" ht="28.8" customHeight="1">
       <c r="A43" t="s" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B43" t="s" s="9">
         <v>9</v>
@@ -3481,26 +3478,26 @@
         <v>10</v>
       </c>
       <c r="D43" t="s" s="34">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E43" t="s" s="10">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F43" t="s" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G43" t="s" s="26">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H43" t="s" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I43" s="6"/>
       <c r="J43" s="7"/>
     </row>
     <row r="44" ht="13.75" customHeight="1">
       <c r="A44" t="s" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B44" t="s" s="9">
         <v>9</v>
@@ -3509,26 +3506,26 @@
         <v>10</v>
       </c>
       <c r="D44" t="s" s="34">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E44" t="s" s="10">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F44" t="s" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G44" t="s" s="26">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H44" t="s" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I44" s="6"/>
       <c r="J44" s="7"/>
     </row>
     <row r="45" ht="28.8" customHeight="1">
       <c r="A45" t="s" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B45" t="s" s="9">
         <v>9</v>
@@ -3540,23 +3537,23 @@
         <v>11</v>
       </c>
       <c r="E45" t="s" s="10">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F45" t="s" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G45" t="s" s="26">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H45" t="s" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I45" s="6"/>
       <c r="J45" s="7"/>
     </row>
     <row r="46" ht="28.8" customHeight="1">
       <c r="A46" t="s" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B46" t="s" s="9">
         <v>9</v>
@@ -3568,23 +3565,23 @@
         <v>11</v>
       </c>
       <c r="E46" t="s" s="10">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F46" t="s" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G46" t="s" s="26">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H46" t="s" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I46" s="6"/>
       <c r="J46" s="7"/>
     </row>
     <row r="47" ht="28.8" customHeight="1">
       <c r="A47" t="s" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B47" t="s" s="9">
         <v>9</v>
@@ -3596,23 +3593,23 @@
         <v>11</v>
       </c>
       <c r="E47" t="s" s="10">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F47" t="s" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G47" t="s" s="26">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H47" t="s" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I47" s="6"/>
       <c r="J47" s="7"/>
     </row>
     <row r="48" ht="28.8" customHeight="1">
       <c r="A48" t="s" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B48" t="s" s="9">
         <v>9</v>
@@ -3624,23 +3621,23 @@
         <v>11</v>
       </c>
       <c r="E48" t="s" s="10">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F48" t="s" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G48" t="s" s="26">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H48" t="s" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I48" s="6"/>
       <c r="J48" s="7"/>
     </row>
     <row r="49" ht="28.8" customHeight="1">
       <c r="A49" t="s" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B49" t="s" s="9">
         <v>9</v>
@@ -3652,23 +3649,23 @@
         <v>11</v>
       </c>
       <c r="E49" t="s" s="10">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F49" t="s" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G49" t="s" s="26">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H49" t="s" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I49" s="6"/>
       <c r="J49" s="7"/>
     </row>
     <row r="50" ht="28.8" customHeight="1">
       <c r="A50" t="s" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B50" t="s" s="9">
         <v>9</v>
@@ -3680,23 +3677,23 @@
         <v>11</v>
       </c>
       <c r="E50" t="s" s="10">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F50" t="s" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G50" t="s" s="26">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H50" t="s" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I50" s="6"/>
       <c r="J50" s="7"/>
     </row>
     <row r="51" ht="28.8" customHeight="1">
       <c r="A51" t="s" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B51" t="s" s="9">
         <v>9</v>
@@ -3708,23 +3705,23 @@
         <v>11</v>
       </c>
       <c r="E51" t="s" s="10">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F51" t="s" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G51" t="s" s="26">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H51" t="s" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I51" s="6"/>
       <c r="J51" s="7"/>
     </row>
     <row r="52" ht="28.8" customHeight="1">
       <c r="A52" t="s" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B52" t="s" s="9">
         <v>9</v>
@@ -3736,23 +3733,23 @@
         <v>11</v>
       </c>
       <c r="E52" t="s" s="10">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F52" t="s" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G52" t="s" s="26">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H52" t="s" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I52" s="6"/>
       <c r="J52" s="7"/>
     </row>
     <row r="53" ht="28.8" customHeight="1">
       <c r="A53" t="s" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B53" t="s" s="9">
         <v>9</v>
@@ -3764,23 +3761,23 @@
         <v>11</v>
       </c>
       <c r="E53" t="s" s="10">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F53" t="s" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G53" t="s" s="26">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H53" t="s" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I53" s="6"/>
       <c r="J53" s="7"/>
     </row>
     <row r="54" ht="28.8" customHeight="1">
       <c r="A54" t="s" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B54" t="s" s="9">
         <v>9</v>
@@ -3792,23 +3789,23 @@
         <v>11</v>
       </c>
       <c r="E54" t="s" s="10">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F54" t="s" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G54" t="s" s="26">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H54" t="s" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I54" s="6"/>
       <c r="J54" s="7"/>
     </row>
     <row r="55" ht="28.8" customHeight="1">
       <c r="A55" t="s" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B55" t="s" s="9">
         <v>9</v>
@@ -3820,23 +3817,23 @@
         <v>11</v>
       </c>
       <c r="E55" t="s" s="10">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F55" t="s" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G55" t="s" s="26">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H55" t="s" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I55" s="6"/>
       <c r="J55" s="7"/>
     </row>
     <row r="56" ht="13.75" customHeight="1">
       <c r="A56" t="s" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B56" t="s" s="9">
         <v>9</v>
@@ -3848,23 +3845,23 @@
         <v>11</v>
       </c>
       <c r="E56" t="s" s="10">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F56" t="s" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G56" t="s" s="26">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H56" t="s" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I56" s="6"/>
       <c r="J56" s="7"/>
     </row>
     <row r="57" ht="28.8" customHeight="1">
       <c r="A57" t="s" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" t="s" s="9">
         <v>9</v>
@@ -3876,23 +3873,23 @@
         <v>11</v>
       </c>
       <c r="E57" t="s" s="10">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F57" t="s" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G57" t="s" s="26">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H57" t="s" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I57" s="6"/>
       <c r="J57" s="7"/>
     </row>
     <row r="58" ht="28.8" customHeight="1">
       <c r="A58" t="s" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s" s="9">
         <v>9</v>
@@ -3904,23 +3901,23 @@
         <v>11</v>
       </c>
       <c r="E58" t="s" s="10">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F58" t="s" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G58" t="s" s="26">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H58" t="s" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I58" s="6"/>
       <c r="J58" s="7"/>
     </row>
     <row r="59" ht="28.8" customHeight="1">
       <c r="A59" t="s" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B59" t="s" s="9">
         <v>9</v>
@@ -3932,23 +3929,23 @@
         <v>11</v>
       </c>
       <c r="E59" t="s" s="10">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F59" t="s" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G59" t="s" s="26">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H59" t="s" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I59" s="6"/>
       <c r="J59" s="7"/>
     </row>
     <row r="60" ht="28.8" customHeight="1">
       <c r="A60" t="s" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B60" t="s" s="9">
         <v>9</v>
@@ -3960,23 +3957,23 @@
         <v>11</v>
       </c>
       <c r="E60" t="s" s="10">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F60" t="s" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G60" t="s" s="26">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H60" t="s" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I60" s="6"/>
       <c r="J60" s="7"/>
     </row>
     <row r="61" ht="28.8" customHeight="1">
       <c r="A61" t="s" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B61" t="s" s="9">
         <v>9</v>
@@ -3988,23 +3985,23 @@
         <v>11</v>
       </c>
       <c r="E61" t="s" s="10">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F61" t="s" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G61" t="s" s="26">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H61" t="s" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I61" s="6"/>
       <c r="J61" s="7"/>
     </row>
     <row r="62" ht="28.8" customHeight="1">
       <c r="A62" t="s" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B62" t="s" s="9">
         <v>9</v>
@@ -4016,23 +4013,23 @@
         <v>11</v>
       </c>
       <c r="E62" t="s" s="10">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F62" t="s" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G62" t="s" s="26">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H62" t="s" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I62" s="6"/>
       <c r="J62" s="7"/>
     </row>
     <row r="63" ht="28.8" customHeight="1">
       <c r="A63" t="s" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B63" t="s" s="9">
         <v>9</v>
@@ -4044,23 +4041,23 @@
         <v>11</v>
       </c>
       <c r="E63" t="s" s="10">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F63" t="s" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G63" t="s" s="26">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H63" t="s" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I63" s="6"/>
       <c r="J63" s="7"/>
     </row>
     <row r="64" ht="28.8" customHeight="1">
       <c r="A64" t="s" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B64" t="s" s="9">
         <v>9</v>
@@ -4072,23 +4069,23 @@
         <v>11</v>
       </c>
       <c r="E64" t="s" s="25">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F64" t="s" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G64" t="s" s="26">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H64" t="s" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I64" s="6"/>
       <c r="J64" s="7"/>
     </row>
     <row r="65" ht="28.8" customHeight="1">
       <c r="A65" t="s" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B65" t="s" s="9">
         <v>9</v>
@@ -4100,23 +4097,23 @@
         <v>11</v>
       </c>
       <c r="E65" t="s" s="10">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F65" t="s" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G65" t="s" s="26">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H65" t="s" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I65" s="6"/>
       <c r="J65" s="7"/>
     </row>
     <row r="66" ht="28.8" customHeight="1">
       <c r="A66" t="s" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B66" t="s" s="9">
         <v>9</v>
@@ -4128,23 +4125,23 @@
         <v>11</v>
       </c>
       <c r="E66" t="s" s="10">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F66" t="s" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G66" t="s" s="26">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H66" t="s" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I66" s="6"/>
       <c r="J66" s="7"/>
     </row>
     <row r="67" ht="28.8" customHeight="1">
       <c r="A67" t="s" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B67" t="s" s="9">
         <v>9</v>
@@ -4156,23 +4153,23 @@
         <v>11</v>
       </c>
       <c r="E67" t="s" s="10">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F67" t="s" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G67" t="s" s="26">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H67" t="s" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I67" s="6"/>
       <c r="J67" s="7"/>
     </row>
     <row r="68" ht="13.75" customHeight="1">
       <c r="A68" t="s" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B68" t="s" s="9">
         <v>9</v>
@@ -4184,23 +4181,23 @@
         <v>11</v>
       </c>
       <c r="E68" t="s" s="10">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F68" t="s" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G68" t="s" s="26">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H68" t="s" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I68" s="6"/>
       <c r="J68" s="7"/>
     </row>
     <row r="69" ht="28.8" customHeight="1">
       <c r="A69" t="s" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B69" t="s" s="9">
         <v>9</v>
@@ -4212,23 +4209,23 @@
         <v>11</v>
       </c>
       <c r="E69" t="s" s="10">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F69" t="s" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G69" t="s" s="26">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H69" t="s" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I69" s="6"/>
       <c r="J69" s="7"/>
     </row>
     <row r="70" ht="13.75" customHeight="1">
       <c r="A70" t="s" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B70" t="s" s="9">
         <v>9</v>
@@ -4240,23 +4237,23 @@
         <v>11</v>
       </c>
       <c r="E70" t="s" s="10">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F70" t="s" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G70" t="s" s="26">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H70" t="s" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I70" s="6"/>
       <c r="J70" s="7"/>
     </row>
     <row r="71" ht="13.75" customHeight="1">
       <c r="A71" t="s" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B71" t="s" s="9">
         <v>9</v>
@@ -4268,23 +4265,23 @@
         <v>11</v>
       </c>
       <c r="E71" t="s" s="25">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F71" t="s" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G71" t="s" s="26">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H71" t="s" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I71" s="6"/>
       <c r="J71" s="7"/>
     </row>
     <row r="72" ht="13.55" customHeight="1">
       <c r="A72" t="s" s="14">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B72" s="15"/>
       <c r="C72" s="15"/>
@@ -4298,7 +4295,7 @@
     </row>
     <row r="73" ht="28.8" customHeight="1">
       <c r="A73" t="s" s="18">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B73" s="19"/>
       <c r="C73" s="19"/>
@@ -4312,7 +4309,7 @@
     </row>
     <row r="74" ht="13.75" customHeight="1">
       <c r="A74" t="s" s="13">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B74" t="s" s="9">
         <v>9</v>
@@ -4327,20 +4324,20 @@
         <v>12</v>
       </c>
       <c r="F74" t="s" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G74" t="s" s="39">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H74" t="s" s="13">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I74" s="6"/>
       <c r="J74" s="7"/>
     </row>
     <row r="75" ht="13.75" customHeight="1">
       <c r="A75" t="s" s="13">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B75" t="s" s="9">
         <v>9</v>
@@ -4355,20 +4352,20 @@
         <v>12</v>
       </c>
       <c r="F75" t="s" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G75" t="s" s="39">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H75" t="s" s="13">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I75" s="6"/>
       <c r="J75" s="7"/>
     </row>
     <row r="76" ht="13.75" customHeight="1">
       <c r="A76" t="s" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B76" t="s" s="9">
         <v>9</v>
@@ -4377,26 +4374,26 @@
         <v>10</v>
       </c>
       <c r="D76" t="s" s="34">
+        <v>119</v>
+      </c>
+      <c r="E76" t="s" s="10">
         <v>120</v>
       </c>
-      <c r="E76" t="s" s="10">
-        <v>121</v>
-      </c>
       <c r="F76" t="s" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G76" t="s" s="39">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H76" t="s" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I76" s="6"/>
       <c r="J76" s="7"/>
     </row>
     <row r="77" ht="28.8" customHeight="1">
       <c r="A77" t="s" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B77" t="s" s="9">
         <v>9</v>
@@ -4405,26 +4402,26 @@
         <v>10</v>
       </c>
       <c r="D77" t="s" s="34">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E77" t="s" s="40">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F77" t="s" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G77" t="s" s="39">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H77" t="s" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I77" s="6"/>
       <c r="J77" s="7"/>
     </row>
     <row r="78" ht="13.75" customHeight="1">
       <c r="A78" t="s" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B78" t="s" s="9">
         <v>9</v>
@@ -4433,26 +4430,26 @@
         <v>10</v>
       </c>
       <c r="D78" t="s" s="34">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E78" t="s" s="10">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F78" t="s" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G78" t="s" s="39">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H78" t="s" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I78" s="6"/>
       <c r="J78" s="7"/>
     </row>
     <row r="79" ht="28.8" customHeight="1">
       <c r="A79" t="s" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B79" t="s" s="9">
         <v>9</v>
@@ -4461,26 +4458,26 @@
         <v>10</v>
       </c>
       <c r="D79" t="s" s="34">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E79" t="s" s="10">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F79" t="s" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G79" t="s" s="39">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H79" t="s" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I79" s="6"/>
       <c r="J79" s="7"/>
     </row>
     <row r="80" ht="28.8" customHeight="1">
       <c r="A80" t="s" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B80" t="s" s="9">
         <v>9</v>
@@ -4489,26 +4486,26 @@
         <v>10</v>
       </c>
       <c r="D80" t="s" s="34">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E80" t="s" s="25">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F80" t="s" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G80" t="s" s="39">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H80" t="s" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I80" s="6"/>
       <c r="J80" s="7"/>
     </row>
     <row r="81" ht="28.8" customHeight="1">
       <c r="A81" t="s" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B81" t="s" s="9">
         <v>9</v>
@@ -4517,26 +4514,26 @@
         <v>10</v>
       </c>
       <c r="D81" t="s" s="34">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E81" t="s" s="10">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F81" t="s" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G81" t="s" s="39">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H81" t="s" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I81" s="6"/>
       <c r="J81" s="7"/>
     </row>
     <row r="82" ht="28.8" customHeight="1">
       <c r="A82" t="s" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B82" t="s" s="9">
         <v>9</v>
@@ -4545,26 +4542,26 @@
         <v>10</v>
       </c>
       <c r="D82" t="s" s="34">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E82" t="s" s="10">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F82" t="s" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G82" t="s" s="39">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H82" t="s" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I82" s="6"/>
       <c r="J82" s="7"/>
     </row>
     <row r="83" ht="28.8" customHeight="1">
       <c r="A83" t="s" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B83" t="s" s="9">
         <v>9</v>
@@ -4573,26 +4570,26 @@
         <v>10</v>
       </c>
       <c r="D83" t="s" s="34">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E83" t="s" s="10">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F83" t="s" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G83" t="s" s="39">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H83" t="s" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I83" s="6"/>
       <c r="J83" s="7"/>
     </row>
     <row r="84" ht="28.8" customHeight="1">
       <c r="A84" t="s" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B84" t="s" s="9">
         <v>9</v>
@@ -4601,26 +4598,26 @@
         <v>10</v>
       </c>
       <c r="D84" t="s" s="34">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E84" t="s" s="10">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F84" t="s" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G84" t="s" s="39">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H84" t="s" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I84" s="6"/>
       <c r="J84" s="7"/>
     </row>
     <row r="85" ht="28.8" customHeight="1">
       <c r="A85" t="s" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B85" t="s" s="9">
         <v>9</v>
@@ -4629,26 +4626,26 @@
         <v>10</v>
       </c>
       <c r="D85" t="s" s="34">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E85" t="s" s="10">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F85" t="s" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G85" t="s" s="39">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H85" t="s" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I85" s="6"/>
       <c r="J85" s="7"/>
     </row>
     <row r="86" ht="28.8" customHeight="1">
       <c r="A86" t="s" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B86" t="s" s="9">
         <v>9</v>
@@ -4657,26 +4654,26 @@
         <v>10</v>
       </c>
       <c r="D86" t="s" s="34">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E86" t="s" s="10">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F86" t="s" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G86" t="s" s="39">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H86" t="s" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I86" s="6"/>
       <c r="J86" s="7"/>
     </row>
     <row r="87" ht="28.8" customHeight="1">
       <c r="A87" t="s" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B87" t="s" s="9">
         <v>9</v>
@@ -4685,26 +4682,26 @@
         <v>10</v>
       </c>
       <c r="D87" t="s" s="34">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E87" t="s" s="10">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F87" t="s" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G87" t="s" s="39">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H87" t="s" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I87" s="6"/>
       <c r="J87" s="7"/>
     </row>
     <row r="88" ht="28.8" customHeight="1">
       <c r="A88" t="s" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B88" t="s" s="9">
         <v>9</v>
@@ -4713,26 +4710,26 @@
         <v>10</v>
       </c>
       <c r="D88" t="s" s="34">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E88" t="s" s="10">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F88" t="s" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G88" t="s" s="39">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H88" t="s" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I88" s="6"/>
       <c r="J88" s="7"/>
     </row>
     <row r="89" ht="28.8" customHeight="1">
       <c r="A89" t="s" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B89" t="s" s="9">
         <v>9</v>
@@ -4741,26 +4738,26 @@
         <v>10</v>
       </c>
       <c r="D89" t="s" s="34">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E89" t="s" s="10">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F89" t="s" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G89" t="s" s="39">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H89" t="s" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I89" s="6"/>
       <c r="J89" s="7"/>
     </row>
     <row r="90" ht="13.75" customHeight="1">
       <c r="A90" t="s" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B90" t="s" s="9">
         <v>9</v>
@@ -4769,26 +4766,26 @@
         <v>10</v>
       </c>
       <c r="D90" t="s" s="34">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E90" t="s" s="10">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F90" t="s" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G90" t="s" s="39">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H90" t="s" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I90" s="6"/>
       <c r="J90" s="7"/>
     </row>
     <row r="91" ht="28.8" customHeight="1">
       <c r="A91" t="s" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B91" t="s" s="9">
         <v>9</v>
@@ -4797,26 +4794,26 @@
         <v>10</v>
       </c>
       <c r="D91" t="s" s="34">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E91" t="s" s="10">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F91" t="s" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G91" t="s" s="39">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H91" t="s" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I91" s="6"/>
       <c r="J91" s="7"/>
     </row>
     <row r="92" ht="28.8" customHeight="1">
       <c r="A92" t="s" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B92" t="s" s="9">
         <v>9</v>
@@ -4825,26 +4822,26 @@
         <v>10</v>
       </c>
       <c r="D92" t="s" s="34">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E92" t="s" s="10">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F92" t="s" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G92" t="s" s="39">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H92" t="s" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I92" s="6"/>
       <c r="J92" s="7"/>
     </row>
     <row r="93" ht="28.8" customHeight="1">
       <c r="A93" t="s" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B93" t="s" s="9">
         <v>9</v>
@@ -4853,26 +4850,26 @@
         <v>10</v>
       </c>
       <c r="D93" t="s" s="34">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E93" t="s" s="10">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F93" t="s" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G93" t="s" s="39">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H93" t="s" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I93" s="6"/>
       <c r="J93" s="7"/>
     </row>
     <row r="94" ht="28.8" customHeight="1">
       <c r="A94" t="s" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B94" t="s" s="9">
         <v>9</v>
@@ -4881,26 +4878,26 @@
         <v>10</v>
       </c>
       <c r="D94" t="s" s="34">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E94" t="s" s="10">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F94" t="s" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G94" t="s" s="39">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H94" t="s" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I94" s="6"/>
       <c r="J94" s="7"/>
     </row>
     <row r="95" ht="28.8" customHeight="1">
       <c r="A95" t="s" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B95" t="s" s="9">
         <v>9</v>
@@ -4909,26 +4906,26 @@
         <v>10</v>
       </c>
       <c r="D95" t="s" s="34">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E95" t="s" s="10">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F95" t="s" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G95" t="s" s="39">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H95" t="s" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I95" s="6"/>
       <c r="J95" s="7"/>
     </row>
     <row r="96" ht="28.8" customHeight="1">
       <c r="A96" t="s" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B96" t="s" s="9">
         <v>9</v>
@@ -4937,26 +4934,26 @@
         <v>10</v>
       </c>
       <c r="D96" t="s" s="34">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E96" t="s" s="10">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F96" t="s" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G96" t="s" s="39">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H96" t="s" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I96" s="6"/>
       <c r="J96" s="7"/>
     </row>
     <row r="97" ht="28.8" customHeight="1">
       <c r="A97" t="s" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B97" t="s" s="9">
         <v>9</v>
@@ -4965,26 +4962,26 @@
         <v>10</v>
       </c>
       <c r="D97" t="s" s="34">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E97" t="s" s="10">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F97" t="s" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G97" t="s" s="39">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H97" t="s" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I97" s="6"/>
       <c r="J97" s="7"/>
     </row>
     <row r="98" ht="28.8" customHeight="1">
       <c r="A98" t="s" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B98" t="s" s="9">
         <v>9</v>
@@ -4993,26 +4990,26 @@
         <v>10</v>
       </c>
       <c r="D98" t="s" s="34">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E98" t="s" s="10">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F98" t="s" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G98" t="s" s="39">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H98" t="s" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I98" s="6"/>
       <c r="J98" s="7"/>
     </row>
     <row r="99" ht="28.8" customHeight="1">
       <c r="A99" t="s" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B99" t="s" s="9">
         <v>9</v>
@@ -5021,26 +5018,26 @@
         <v>10</v>
       </c>
       <c r="D99" t="s" s="34">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E99" t="s" s="10">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F99" t="s" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G99" t="s" s="39">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H99" t="s" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I99" s="6"/>
       <c r="J99" s="7"/>
     </row>
     <row r="100" ht="28.8" customHeight="1">
       <c r="A100" t="s" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B100" t="s" s="9">
         <v>9</v>
@@ -5049,26 +5046,26 @@
         <v>10</v>
       </c>
       <c r="D100" t="s" s="34">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E100" t="s" s="10">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F100" t="s" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G100" t="s" s="39">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H100" t="s" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I100" s="6"/>
       <c r="J100" s="7"/>
     </row>
     <row r="101" ht="28.8" customHeight="1">
       <c r="A101" t="s" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B101" t="s" s="9">
         <v>9</v>
@@ -5077,26 +5074,26 @@
         <v>10</v>
       </c>
       <c r="D101" t="s" s="34">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E101" t="s" s="10">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F101" t="s" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G101" t="s" s="39">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H101" t="s" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I101" s="6"/>
       <c r="J101" s="7"/>
     </row>
     <row r="102" ht="13.75" customHeight="1">
       <c r="A102" t="s" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B102" t="s" s="9">
         <v>9</v>
@@ -5105,26 +5102,26 @@
         <v>10</v>
       </c>
       <c r="D102" t="s" s="34">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E102" t="s" s="10">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F102" t="s" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G102" t="s" s="39">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H102" t="s" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I102" s="6"/>
       <c r="J102" s="7"/>
     </row>
     <row r="103" ht="28.8" customHeight="1">
       <c r="A103" t="s" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B103" t="s" s="9">
         <v>9</v>
@@ -5133,26 +5130,26 @@
         <v>10</v>
       </c>
       <c r="D103" t="s" s="34">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E103" t="s" s="10">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F103" t="s" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G103" t="s" s="39">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H103" t="s" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I103" s="6"/>
       <c r="J103" s="7"/>
     </row>
     <row r="104" ht="13.75" customHeight="1">
       <c r="A104" t="s" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B104" t="s" s="9">
         <v>9</v>
@@ -5161,26 +5158,26 @@
         <v>10</v>
       </c>
       <c r="D104" t="s" s="34">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E104" t="s" s="10">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F104" t="s" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G104" t="s" s="39">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H104" t="s" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I104" s="6"/>
       <c r="J104" s="7"/>
     </row>
     <row r="105" ht="13.75" customHeight="1">
       <c r="A105" t="s" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B105" t="s" s="9">
         <v>9</v>
@@ -5189,26 +5186,26 @@
         <v>10</v>
       </c>
       <c r="D105" t="s" s="34">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E105" t="s" s="10">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F105" t="s" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G105" t="s" s="39">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H105" t="s" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I105" s="6"/>
       <c r="J105" s="7"/>
     </row>
     <row r="106" ht="13.55" customHeight="1">
       <c r="A106" t="s" s="14">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B106" s="15"/>
       <c r="C106" s="15"/>
@@ -5222,7 +5219,7 @@
     </row>
     <row r="107" ht="28.8" customHeight="1">
       <c r="A107" t="s" s="18">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B107" s="19"/>
       <c r="C107" s="19"/>
@@ -5236,7 +5233,7 @@
     </row>
     <row r="108" ht="13.75" customHeight="1">
       <c r="A108" t="s" s="13">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B108" t="s" s="9">
         <v>9</v>
@@ -5251,20 +5248,20 @@
         <v>12</v>
       </c>
       <c r="F108" t="s" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G108" t="s" s="26">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H108" t="s" s="13">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I108" s="15"/>
       <c r="J108" s="15"/>
     </row>
     <row r="109" ht="13.75" customHeight="1">
       <c r="A109" t="s" s="33">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B109" t="s" s="9">
         <v>9</v>
@@ -5279,20 +5276,20 @@
         <v>12</v>
       </c>
       <c r="F109" t="s" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G109" t="s" s="26">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H109" t="s" s="13">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I109" s="6"/>
       <c r="J109" s="7"/>
     </row>
     <row r="110" ht="13.75" customHeight="1">
       <c r="A110" t="s" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B110" t="s" s="9">
         <v>9</v>
@@ -5301,26 +5298,26 @@
         <v>10</v>
       </c>
       <c r="D110" t="s" s="34">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E110" t="s" s="10">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F110" t="s" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G110" t="s" s="26">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H110" t="s" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I110" s="6"/>
       <c r="J110" s="7"/>
     </row>
     <row r="111" ht="28.8" customHeight="1">
       <c r="A111" t="s" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B111" t="s" s="9">
         <v>9</v>
@@ -5329,26 +5326,26 @@
         <v>10</v>
       </c>
       <c r="D111" t="s" s="34">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E111" t="s" s="10">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F111" t="s" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G111" t="s" s="26">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H111" t="s" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I111" s="6"/>
       <c r="J111" s="7"/>
     </row>
     <row r="112" ht="13.75" customHeight="1">
       <c r="A112" t="s" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B112" t="s" s="9">
         <v>9</v>
@@ -5357,26 +5354,26 @@
         <v>10</v>
       </c>
       <c r="D112" t="s" s="34">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E112" t="s" s="10">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F112" t="s" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G112" t="s" s="26">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H112" t="s" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I112" s="6"/>
       <c r="J112" s="7"/>
     </row>
     <row r="113" ht="28.8" customHeight="1">
       <c r="A113" t="s" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B113" t="s" s="9">
         <v>9</v>
@@ -5385,26 +5382,26 @@
         <v>10</v>
       </c>
       <c r="D113" t="s" s="34">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E113" t="s" s="10">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F113" t="s" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G113" t="s" s="26">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H113" t="s" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I113" s="6"/>
       <c r="J113" s="7"/>
     </row>
     <row r="114" ht="28.8" customHeight="1">
       <c r="A114" t="s" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B114" t="s" s="9">
         <v>9</v>
@@ -5413,26 +5410,26 @@
         <v>10</v>
       </c>
       <c r="D114" t="s" s="34">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E114" t="s" s="10">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F114" t="s" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G114" t="s" s="26">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H114" t="s" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I114" s="6"/>
       <c r="J114" s="7"/>
     </row>
     <row r="115" ht="28.8" customHeight="1">
       <c r="A115" t="s" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B115" t="s" s="9">
         <v>9</v>
@@ -5441,26 +5438,26 @@
         <v>10</v>
       </c>
       <c r="D115" t="s" s="34">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E115" t="s" s="10">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F115" t="s" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G115" t="s" s="26">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H115" t="s" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I115" s="6"/>
       <c r="J115" s="7"/>
     </row>
     <row r="116" ht="28.8" customHeight="1">
       <c r="A116" t="s" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B116" t="s" s="9">
         <v>9</v>
@@ -5469,26 +5466,26 @@
         <v>10</v>
       </c>
       <c r="D116" t="s" s="34">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E116" t="s" s="10">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F116" t="s" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G116" t="s" s="26">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H116" t="s" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I116" s="6"/>
       <c r="J116" s="7"/>
     </row>
     <row r="117" ht="28.8" customHeight="1">
       <c r="A117" t="s" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B117" t="s" s="9">
         <v>9</v>
@@ -5497,26 +5494,26 @@
         <v>10</v>
       </c>
       <c r="D117" t="s" s="34">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E117" t="s" s="10">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F117" t="s" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G117" t="s" s="26">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H117" t="s" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I117" s="6"/>
       <c r="J117" s="7"/>
     </row>
     <row r="118" ht="28.8" customHeight="1">
       <c r="A118" t="s" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B118" t="s" s="9">
         <v>9</v>
@@ -5525,26 +5522,26 @@
         <v>10</v>
       </c>
       <c r="D118" t="s" s="34">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E118" t="s" s="10">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F118" t="s" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G118" t="s" s="26">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H118" t="s" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I118" s="6"/>
       <c r="J118" s="7"/>
     </row>
     <row r="119" ht="28.8" customHeight="1">
       <c r="A119" t="s" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B119" t="s" s="9">
         <v>9</v>
@@ -5553,26 +5550,26 @@
         <v>10</v>
       </c>
       <c r="D119" t="s" s="34">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E119" t="s" s="10">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F119" t="s" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G119" t="s" s="26">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H119" t="s" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I119" s="6"/>
       <c r="J119" s="7"/>
     </row>
     <row r="120" ht="28.8" customHeight="1">
       <c r="A120" t="s" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B120" t="s" s="9">
         <v>9</v>
@@ -5581,26 +5578,26 @@
         <v>10</v>
       </c>
       <c r="D120" t="s" s="34">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E120" t="s" s="25">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F120" t="s" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G120" t="s" s="26">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H120" t="s" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I120" s="6"/>
       <c r="J120" s="7"/>
     </row>
     <row r="121" ht="28.8" customHeight="1">
       <c r="A121" t="s" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B121" t="s" s="9">
         <v>9</v>
@@ -5609,26 +5606,26 @@
         <v>10</v>
       </c>
       <c r="D121" t="s" s="34">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E121" t="s" s="10">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F121" t="s" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G121" t="s" s="26">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H121" t="s" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I121" s="6"/>
       <c r="J121" s="7"/>
     </row>
     <row r="122" ht="28.8" customHeight="1">
       <c r="A122" t="s" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B122" t="s" s="9">
         <v>9</v>
@@ -5637,26 +5634,26 @@
         <v>10</v>
       </c>
       <c r="D122" t="s" s="34">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E122" t="s" s="10">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F122" t="s" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G122" t="s" s="26">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H122" t="s" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I122" s="6"/>
       <c r="J122" s="7"/>
     </row>
     <row r="123" ht="28.8" customHeight="1">
       <c r="A123" t="s" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B123" t="s" s="9">
         <v>9</v>
@@ -5665,26 +5662,26 @@
         <v>10</v>
       </c>
       <c r="D123" t="s" s="34">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E123" t="s" s="10">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F123" t="s" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G123" t="s" s="26">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H123" t="s" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I123" s="6"/>
       <c r="J123" s="7"/>
     </row>
     <row r="124" ht="13.75" customHeight="1">
       <c r="A124" t="s" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B124" t="s" s="9">
         <v>9</v>
@@ -5693,26 +5690,26 @@
         <v>10</v>
       </c>
       <c r="D124" t="s" s="34">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E124" t="s" s="10">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F124" t="s" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G124" t="s" s="26">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H124" t="s" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I124" s="6"/>
       <c r="J124" s="7"/>
     </row>
     <row r="125" ht="28.8" customHeight="1">
       <c r="A125" t="s" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B125" t="s" s="9">
         <v>9</v>
@@ -5721,26 +5718,26 @@
         <v>10</v>
       </c>
       <c r="D125" t="s" s="34">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E125" t="s" s="10">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F125" t="s" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G125" t="s" s="26">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H125" t="s" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I125" s="6"/>
       <c r="J125" s="7"/>
     </row>
     <row r="126" ht="28.8" customHeight="1">
       <c r="A126" t="s" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B126" t="s" s="9">
         <v>9</v>
@@ -5749,26 +5746,26 @@
         <v>10</v>
       </c>
       <c r="D126" t="s" s="34">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E126" t="s" s="10">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F126" t="s" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G126" t="s" s="26">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H126" t="s" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I126" s="6"/>
       <c r="J126" s="7"/>
     </row>
     <row r="127" ht="28.8" customHeight="1">
       <c r="A127" t="s" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B127" t="s" s="9">
         <v>9</v>
@@ -5777,26 +5774,26 @@
         <v>10</v>
       </c>
       <c r="D127" t="s" s="34">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E127" t="s" s="10">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F127" t="s" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G127" t="s" s="26">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H127" t="s" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I127" s="6"/>
       <c r="J127" s="7"/>
     </row>
     <row r="128" ht="28.8" customHeight="1">
       <c r="A128" t="s" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B128" t="s" s="9">
         <v>9</v>
@@ -5805,26 +5802,26 @@
         <v>10</v>
       </c>
       <c r="D128" t="s" s="34">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E128" t="s" s="10">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F128" t="s" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G128" t="s" s="26">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H128" t="s" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I128" s="6"/>
       <c r="J128" s="7"/>
     </row>
     <row r="129" ht="28.8" customHeight="1">
       <c r="A129" t="s" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B129" t="s" s="9">
         <v>9</v>
@@ -5833,26 +5830,26 @@
         <v>10</v>
       </c>
       <c r="D129" t="s" s="34">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E129" t="s" s="10">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F129" t="s" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G129" t="s" s="26">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H129" t="s" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I129" s="6"/>
       <c r="J129" s="7"/>
     </row>
     <row r="130" ht="28.8" customHeight="1">
       <c r="A130" t="s" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B130" t="s" s="9">
         <v>9</v>
@@ -5861,26 +5858,26 @@
         <v>10</v>
       </c>
       <c r="D130" t="s" s="34">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E130" t="s" s="10">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F130" t="s" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G130" t="s" s="26">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H130" t="s" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I130" s="6"/>
       <c r="J130" s="7"/>
     </row>
     <row r="131" ht="28.8" customHeight="1">
       <c r="A131" t="s" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B131" t="s" s="9">
         <v>9</v>
@@ -5889,26 +5886,26 @@
         <v>10</v>
       </c>
       <c r="D131" t="s" s="34">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E131" t="s" s="10">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F131" t="s" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G131" t="s" s="26">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H131" t="s" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I131" s="6"/>
       <c r="J131" s="7"/>
     </row>
     <row r="132" ht="28.8" customHeight="1">
       <c r="A132" t="s" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B132" t="s" s="9">
         <v>9</v>
@@ -5917,26 +5914,26 @@
         <v>10</v>
       </c>
       <c r="D132" t="s" s="34">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E132" t="s" s="10">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F132" t="s" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G132" t="s" s="26">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H132" t="s" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I132" s="6"/>
       <c r="J132" s="7"/>
     </row>
     <row r="133" ht="28.8" customHeight="1">
       <c r="A133" t="s" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B133" t="s" s="9">
         <v>9</v>
@@ -5945,26 +5942,26 @@
         <v>10</v>
       </c>
       <c r="D133" t="s" s="34">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E133" t="s" s="10">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F133" t="s" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G133" t="s" s="26">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H133" t="s" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I133" s="6"/>
       <c r="J133" s="7"/>
     </row>
     <row r="134" ht="28.8" customHeight="1">
       <c r="A134" t="s" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B134" t="s" s="9">
         <v>9</v>
@@ -5973,26 +5970,26 @@
         <v>10</v>
       </c>
       <c r="D134" t="s" s="34">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E134" t="s" s="10">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F134" t="s" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G134" t="s" s="26">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H134" t="s" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I134" s="6"/>
       <c r="J134" s="7"/>
     </row>
     <row r="135" ht="28.8" customHeight="1">
       <c r="A135" t="s" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B135" t="s" s="9">
         <v>9</v>
@@ -6001,26 +5998,26 @@
         <v>10</v>
       </c>
       <c r="D135" t="s" s="34">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E135" t="s" s="10">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F135" t="s" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G135" t="s" s="26">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H135" t="s" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I135" s="6"/>
       <c r="J135" s="7"/>
     </row>
     <row r="136" ht="13.75" customHeight="1">
       <c r="A136" t="s" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B136" t="s" s="9">
         <v>9</v>
@@ -6029,26 +6026,26 @@
         <v>10</v>
       </c>
       <c r="D136" t="s" s="34">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E136" t="s" s="10">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F136" t="s" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G136" t="s" s="26">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H136" t="s" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I136" s="6"/>
       <c r="J136" s="7"/>
     </row>
     <row r="137" ht="28.8" customHeight="1">
       <c r="A137" t="s" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B137" t="s" s="9">
         <v>9</v>
@@ -6057,26 +6054,26 @@
         <v>10</v>
       </c>
       <c r="D137" t="s" s="34">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E137" t="s" s="10">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F137" t="s" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G137" t="s" s="26">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H137" t="s" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I137" s="6"/>
       <c r="J137" s="7"/>
     </row>
     <row r="138" ht="13.75" customHeight="1">
       <c r="A138" t="s" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B138" t="s" s="9">
         <v>9</v>
@@ -6085,26 +6082,26 @@
         <v>10</v>
       </c>
       <c r="D138" t="s" s="34">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E138" t="s" s="10">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F138" t="s" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G138" t="s" s="26">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H138" t="s" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I138" s="6"/>
       <c r="J138" s="7"/>
     </row>
     <row r="139" ht="13.75" customHeight="1">
       <c r="A139" t="s" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B139" t="s" s="9">
         <v>9</v>
@@ -6113,26 +6110,26 @@
         <v>10</v>
       </c>
       <c r="D139" t="s" s="34">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E139" t="s" s="10">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F139" t="s" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G139" t="s" s="26">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H139" t="s" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I139" s="6"/>
       <c r="J139" s="7"/>
     </row>
     <row r="140" ht="13.75" customHeight="1">
       <c r="A140" t="s" s="41">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B140" s="12"/>
       <c r="C140" s="12"/>
@@ -6146,7 +6143,7 @@
     </row>
     <row r="141" ht="13.75" customHeight="1">
       <c r="A141" t="s" s="13">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B141" t="s" s="9">
         <v>9</v>
@@ -6161,10 +6158,10 @@
         <v>12</v>
       </c>
       <c r="F141" t="s" s="9">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G141" t="s" s="13">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H141" s="45"/>
       <c r="I141" s="12"/>
@@ -6172,7 +6169,7 @@
     </row>
     <row r="142" ht="13.75" customHeight="1">
       <c r="A142" t="s" s="13">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B142" t="s" s="9">
         <v>9</v>
@@ -6187,10 +6184,10 @@
         <v>12</v>
       </c>
       <c r="F142" t="s" s="9">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G142" t="s" s="13">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H142" s="45"/>
       <c r="I142" s="12"/>
@@ -6198,25 +6195,25 @@
     </row>
     <row r="143" ht="13.75" customHeight="1">
       <c r="A143" t="s" s="13">
+        <v>183</v>
+      </c>
+      <c r="B143" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C143" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="D143" t="s" s="9">
+        <v>11</v>
+      </c>
+      <c r="E143" t="s" s="10">
+        <v>82</v>
+      </c>
+      <c r="F143" t="s" s="9">
+        <v>182</v>
+      </c>
+      <c r="G143" t="s" s="8">
         <v>184</v>
-      </c>
-      <c r="B143" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C143" t="s" s="9">
-        <v>10</v>
-      </c>
-      <c r="D143" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="E143" t="s" s="10">
-        <v>83</v>
-      </c>
-      <c r="F143" t="s" s="9">
-        <v>183</v>
-      </c>
-      <c r="G143" t="s" s="8">
-        <v>185</v>
       </c>
       <c r="H143" s="12"/>
       <c r="I143" s="27"/>
@@ -6224,7 +6221,7 @@
     </row>
     <row r="144" ht="13.75" customHeight="1">
       <c r="A144" t="s" s="13">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B144" t="s" s="9">
         <v>9</v>
@@ -6233,16 +6230,16 @@
         <v>10</v>
       </c>
       <c r="D144" t="s" s="9">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E144" t="s" s="10">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F144" t="s" s="9">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G144" t="s" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H144" s="12"/>
       <c r="I144" s="6"/>
@@ -6250,25 +6247,25 @@
     </row>
     <row r="145" ht="13.75" customHeight="1">
       <c r="A145" t="s" s="13">
+        <v>186</v>
+      </c>
+      <c r="B145" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C145" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="D145" t="s" s="9">
+        <v>11</v>
+      </c>
+      <c r="E145" t="s" s="10">
+        <v>115</v>
+      </c>
+      <c r="F145" t="s" s="9">
+        <v>182</v>
+      </c>
+      <c r="G145" t="s" s="13">
         <v>187</v>
-      </c>
-      <c r="B145" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C145" t="s" s="9">
-        <v>10</v>
-      </c>
-      <c r="D145" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="E145" t="s" s="10">
-        <v>116</v>
-      </c>
-      <c r="F145" t="s" s="9">
-        <v>183</v>
-      </c>
-      <c r="G145" t="s" s="13">
-        <v>188</v>
       </c>
       <c r="H145" s="12"/>
       <c r="I145" s="6"/>
@@ -6276,7 +6273,7 @@
     </row>
     <row r="146" ht="13.75" customHeight="1">
       <c r="A146" t="s" s="13">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B146" t="s" s="9">
         <v>9</v>
@@ -6285,16 +6282,16 @@
         <v>10</v>
       </c>
       <c r="D146" t="s" s="9">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E146" t="s" s="10">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F146" t="s" s="9">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G146" t="s" s="13">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H146" s="12"/>
       <c r="I146" s="6"/>
@@ -6302,25 +6299,25 @@
     </row>
     <row r="147" ht="13.75" customHeight="1">
       <c r="A147" t="s" s="8">
+        <v>189</v>
+      </c>
+      <c r="B147" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C147" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="D147" t="s" s="34">
+        <v>119</v>
+      </c>
+      <c r="E147" t="s" s="25">
         <v>190</v>
       </c>
-      <c r="B147" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C147" t="s" s="9">
-        <v>10</v>
-      </c>
-      <c r="D147" t="s" s="34">
-        <v>120</v>
-      </c>
-      <c r="E147" t="s" s="25">
-        <v>191</v>
-      </c>
       <c r="F147" t="s" s="9">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G147" t="s" s="46">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H147" s="12"/>
       <c r="I147" s="6"/>
@@ -6328,25 +6325,25 @@
     </row>
     <row r="148" ht="13.75" customHeight="1">
       <c r="A148" t="s" s="8">
+        <v>191</v>
+      </c>
+      <c r="B148" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C148" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="D148" t="s" s="34">
+        <v>119</v>
+      </c>
+      <c r="E148" t="s" s="10">
         <v>192</v>
       </c>
-      <c r="B148" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C148" t="s" s="9">
-        <v>10</v>
-      </c>
-      <c r="D148" t="s" s="34">
-        <v>120</v>
-      </c>
-      <c r="E148" t="s" s="10">
-        <v>193</v>
-      </c>
       <c r="F148" t="s" s="9">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G148" t="s" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H148" s="12"/>
       <c r="I148" s="6"/>
@@ -6354,25 +6351,25 @@
     </row>
     <row r="149" ht="13.75" customHeight="1">
       <c r="A149" t="s" s="8">
+        <v>193</v>
+      </c>
+      <c r="B149" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C149" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="D149" t="s" s="34">
+        <v>119</v>
+      </c>
+      <c r="E149" t="s" s="10">
         <v>194</v>
       </c>
-      <c r="B149" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C149" t="s" s="9">
-        <v>10</v>
-      </c>
-      <c r="D149" t="s" s="34">
-        <v>120</v>
-      </c>
-      <c r="E149" t="s" s="10">
-        <v>195</v>
-      </c>
       <c r="F149" t="s" s="9">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G149" t="s" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H149" s="12"/>
       <c r="I149" s="6"/>
@@ -6392,25 +6389,25 @@
     </row>
     <row r="151" ht="41.4" customHeight="1">
       <c r="A151" t="s" s="47">
+        <v>195</v>
+      </c>
+      <c r="B151" t="s" s="9">
+        <v>14</v>
+      </c>
+      <c r="C151" t="s" s="9">
+        <v>15</v>
+      </c>
+      <c r="D151" t="s" s="34">
         <v>196</v>
       </c>
-      <c r="B151" t="s" s="9">
-        <v>15</v>
-      </c>
-      <c r="C151" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="D151" t="s" s="34">
+      <c r="E151" t="s" s="25">
         <v>197</v>
       </c>
-      <c r="E151" t="s" s="25">
+      <c r="F151" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="G151" t="s" s="48">
         <v>198</v>
-      </c>
-      <c r="F151" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="G151" t="s" s="48">
-        <v>199</v>
       </c>
       <c r="H151" s="12"/>
       <c r="I151" s="6"/>
@@ -6418,7 +6415,7 @@
     </row>
     <row r="152" ht="13.75" customHeight="1">
       <c r="A152" t="s" s="47">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B152" s="12"/>
       <c r="C152" s="12"/>
@@ -6432,25 +6429,25 @@
     </row>
     <row r="153" ht="13.75" customHeight="1">
       <c r="A153" t="s" s="8">
+        <v>200</v>
+      </c>
+      <c r="B153" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C153" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="D153" t="s" s="34">
+        <v>11</v>
+      </c>
+      <c r="E153" t="s" s="25">
         <v>201</v>
       </c>
-      <c r="B153" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C153" t="s" s="9">
-        <v>10</v>
-      </c>
-      <c r="D153" t="s" s="34">
-        <v>11</v>
-      </c>
-      <c r="E153" t="s" s="25">
+      <c r="F153" t="s" s="9">
         <v>202</v>
       </c>
-      <c r="F153" t="s" s="9">
-        <v>203</v>
-      </c>
       <c r="G153" t="s" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H153" s="12"/>
       <c r="I153" s="6"/>
@@ -6458,25 +6455,25 @@
     </row>
     <row r="154" ht="13.75" customHeight="1">
       <c r="A154" t="s" s="8">
+        <v>203</v>
+      </c>
+      <c r="B154" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C154" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="D154" t="s" s="34">
+        <v>11</v>
+      </c>
+      <c r="E154" t="s" s="25">
         <v>204</v>
       </c>
-      <c r="B154" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C154" t="s" s="9">
-        <v>10</v>
-      </c>
-      <c r="D154" t="s" s="34">
-        <v>11</v>
-      </c>
-      <c r="E154" t="s" s="25">
-        <v>205</v>
-      </c>
       <c r="F154" t="s" s="9">
+        <v>202</v>
+      </c>
+      <c r="G154" t="s" s="8">
         <v>203</v>
-      </c>
-      <c r="G154" t="s" s="8">
-        <v>204</v>
       </c>
       <c r="H154" s="12"/>
       <c r="I154" s="6"/>
@@ -6484,25 +6481,25 @@
     </row>
     <row r="155" ht="13.75" customHeight="1">
       <c r="A155" t="s" s="8">
+        <v>205</v>
+      </c>
+      <c r="B155" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C155" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="D155" t="s" s="34">
+        <v>11</v>
+      </c>
+      <c r="E155" t="s" s="10">
         <v>206</v>
       </c>
-      <c r="B155" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C155" t="s" s="9">
-        <v>10</v>
-      </c>
-      <c r="D155" t="s" s="34">
-        <v>11</v>
-      </c>
-      <c r="E155" t="s" s="10">
-        <v>207</v>
-      </c>
       <c r="F155" t="s" s="9">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G155" t="s" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H155" s="12"/>
       <c r="I155" s="6"/>
@@ -6510,7 +6507,7 @@
     </row>
     <row r="156" ht="28.8" customHeight="1">
       <c r="A156" t="s" s="50">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B156" s="15"/>
       <c r="C156" s="15"/>
@@ -6524,25 +6521,25 @@
     </row>
     <row r="157" ht="13.55" customHeight="1">
       <c r="A157" t="s" s="51">
+        <v>208</v>
+      </c>
+      <c r="B157" t="s" s="52">
+        <v>14</v>
+      </c>
+      <c r="C157" t="s" s="52">
+        <v>15</v>
+      </c>
+      <c r="D157" t="s" s="53">
         <v>209</v>
       </c>
-      <c r="B157" t="s" s="52">
-        <v>15</v>
-      </c>
-      <c r="C157" t="s" s="52">
-        <v>16</v>
-      </c>
-      <c r="D157" t="s" s="53">
+      <c r="E157" t="s" s="54">
         <v>210</v>
       </c>
-      <c r="E157" t="s" s="54">
+      <c r="F157" t="s" s="55">
         <v>211</v>
       </c>
-      <c r="F157" t="s" s="55">
+      <c r="G157" t="s" s="56">
         <v>212</v>
-      </c>
-      <c r="G157" t="s" s="56">
-        <v>213</v>
       </c>
       <c r="H157" s="19"/>
       <c r="I157" s="6"/>
@@ -6562,25 +6559,25 @@
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="s" s="59">
+        <v>213</v>
+      </c>
+      <c r="B159" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C159" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="D159" t="s" s="60">
+        <v>11</v>
+      </c>
+      <c r="E159" t="s" s="60">
         <v>214</v>
       </c>
-      <c r="B159" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C159" t="s" s="9">
-        <v>10</v>
-      </c>
-      <c r="D159" t="s" s="60">
-        <v>11</v>
-      </c>
-      <c r="E159" t="s" s="60">
-        <v>215</v>
-      </c>
       <c r="F159" t="s" s="9">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G159" t="s" s="13">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H159" s="12"/>
       <c r="I159" s="6"/>
@@ -6588,25 +6585,25 @@
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="s" s="59">
+        <v>215</v>
+      </c>
+      <c r="B160" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C160" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="D160" t="s" s="60">
+        <v>11</v>
+      </c>
+      <c r="E160" t="s" s="60">
         <v>216</v>
       </c>
-      <c r="B160" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C160" t="s" s="9">
-        <v>10</v>
-      </c>
-      <c r="D160" t="s" s="60">
-        <v>11</v>
-      </c>
-      <c r="E160" t="s" s="60">
-        <v>217</v>
-      </c>
       <c r="F160" t="s" s="9">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G160" t="s" s="13">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H160" s="12"/>
       <c r="I160" s="6"/>
@@ -6614,25 +6611,25 @@
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="s" s="59">
+        <v>217</v>
+      </c>
+      <c r="B161" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C161" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="D161" t="s" s="60">
+        <v>11</v>
+      </c>
+      <c r="E161" t="s" s="60">
         <v>218</v>
       </c>
-      <c r="B161" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C161" t="s" s="9">
-        <v>10</v>
-      </c>
-      <c r="D161" t="s" s="60">
-        <v>11</v>
-      </c>
-      <c r="E161" t="s" s="60">
+      <c r="F161" t="s" s="9">
         <v>219</v>
       </c>
-      <c r="F161" t="s" s="9">
-        <v>220</v>
-      </c>
       <c r="G161" t="s" s="13">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H161" s="12"/>
       <c r="I161" s="6"/>
@@ -6652,25 +6649,25 @@
     </row>
     <row r="163" ht="14.4" customHeight="1">
       <c r="A163" t="s" s="63">
+        <v>220</v>
+      </c>
+      <c r="B163" t="s" s="64">
+        <v>14</v>
+      </c>
+      <c r="C163" t="s" s="9">
+        <v>15</v>
+      </c>
+      <c r="D163" t="s" s="65">
         <v>221</v>
       </c>
-      <c r="B163" t="s" s="64">
-        <v>15</v>
-      </c>
-      <c r="C163" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="D163" t="s" s="65">
+      <c r="E163" t="s" s="66">
         <v>222</v>
       </c>
-      <c r="E163" t="s" s="66">
+      <c r="F163" t="s" s="67">
+        <v>220</v>
+      </c>
+      <c r="G163" t="s" s="26">
         <v>223</v>
-      </c>
-      <c r="F163" t="s" s="67">
-        <v>221</v>
-      </c>
-      <c r="G163" t="s" s="26">
-        <v>224</v>
       </c>
       <c r="H163" s="15"/>
       <c r="I163" s="6"/>
@@ -6678,25 +6675,25 @@
     </row>
     <row r="164" ht="13.55" customHeight="1">
       <c r="A164" t="s" s="63">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B164" t="s" s="68">
+        <v>14</v>
+      </c>
+      <c r="C164" t="s" s="9">
         <v>15</v>
       </c>
-      <c r="C164" t="s" s="9">
-        <v>16</v>
-      </c>
       <c r="D164" t="s" s="69">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E164" t="s" s="66">
+        <v>222</v>
+      </c>
+      <c r="F164" t="s" s="67">
+        <v>220</v>
+      </c>
+      <c r="G164" t="s" s="26">
         <v>223</v>
-      </c>
-      <c r="F164" t="s" s="67">
-        <v>221</v>
-      </c>
-      <c r="G164" t="s" s="26">
-        <v>224</v>
       </c>
       <c r="H164" s="70"/>
       <c r="I164" s="6"/>
@@ -6704,25 +6701,25 @@
     </row>
     <row r="165" ht="13.55" customHeight="1">
       <c r="A165" t="s" s="63">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B165" t="s" s="68">
+        <v>14</v>
+      </c>
+      <c r="C165" t="s" s="9">
         <v>15</v>
       </c>
-      <c r="C165" t="s" s="9">
-        <v>16</v>
-      </c>
       <c r="D165" t="s" s="71">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E165" t="s" s="72">
+        <v>222</v>
+      </c>
+      <c r="F165" t="s" s="73">
+        <v>220</v>
+      </c>
+      <c r="G165" t="s" s="74">
         <v>223</v>
-      </c>
-      <c r="F165" t="s" s="73">
-        <v>221</v>
-      </c>
-      <c r="G165" t="s" s="74">
-        <v>224</v>
       </c>
       <c r="H165" s="19"/>
       <c r="I165" s="6"/>
@@ -6742,28 +6739,28 @@
     </row>
     <row r="167" ht="13.65" customHeight="1">
       <c r="A167" t="s" s="77">
+        <v>226</v>
+      </c>
+      <c r="B167" t="s" s="77">
+        <v>9</v>
+      </c>
+      <c r="C167" t="s" s="77">
+        <v>10</v>
+      </c>
+      <c r="D167" t="s" s="77">
+        <v>11</v>
+      </c>
+      <c r="E167" t="s" s="78">
         <v>227</v>
       </c>
-      <c r="B167" t="s" s="77">
-        <v>9</v>
-      </c>
-      <c r="C167" t="s" s="77">
-        <v>10</v>
-      </c>
-      <c r="D167" t="s" s="77">
-        <v>11</v>
-      </c>
-      <c r="E167" t="s" s="78">
+      <c r="F167" t="s" s="78">
+        <v>202</v>
+      </c>
+      <c r="G167" t="s" s="77">
+        <v>226</v>
+      </c>
+      <c r="H167" t="s" s="77">
         <v>228</v>
-      </c>
-      <c r="F167" t="s" s="78">
-        <v>203</v>
-      </c>
-      <c r="G167" t="s" s="77">
-        <v>227</v>
-      </c>
-      <c r="H167" t="s" s="77">
-        <v>229</v>
       </c>
       <c r="I167" s="7"/>
       <c r="J167" s="7"/>
